--- a/Fase 2/Evidencias Proyecto/Sprints/Daily Meeting/Daily Meetings – Sprint 7 (29 de septiembre – 3 de octubre 2025).xlsx
+++ b/Fase 2/Evidencias Proyecto/Sprints/Daily Meeting/Daily Meetings – Sprint 7 (29 de septiembre – 3 de octubre 2025).xlsx
@@ -665,7 +665,7 @@
       <c r="J6" s="2"/>
       <c r="K6" s="2"/>
     </row>
-    <row r="7">
+    <row r="7" ht="22.5" customHeight="1">
       <c r="A7" s="2"/>
       <c r="B7" s="6" t="s">
         <v>1</v>
@@ -690,7 +690,7 @@
       <c r="J7" s="2"/>
       <c r="K7" s="2"/>
     </row>
-    <row r="8">
+    <row r="8" ht="22.5" customHeight="1">
       <c r="A8" s="2"/>
       <c r="B8" s="7">
         <v>45929.0</v>
@@ -715,7 +715,7 @@
       <c r="J8" s="2"/>
       <c r="K8" s="2"/>
     </row>
-    <row r="9">
+    <row r="9" ht="22.5" customHeight="1">
       <c r="A9" s="2"/>
       <c r="B9" s="7">
         <v>45929.0</v>
@@ -740,7 +740,7 @@
       <c r="J9" s="2"/>
       <c r="K9" s="2"/>
     </row>
-    <row r="10">
+    <row r="10" ht="22.5" customHeight="1">
       <c r="A10" s="2"/>
       <c r="B10" s="7">
         <v>45929.0</v>
@@ -765,7 +765,7 @@
       <c r="J10" s="2"/>
       <c r="K10" s="2"/>
     </row>
-    <row r="11">
+    <row r="11" ht="22.5" customHeight="1">
       <c r="A11" s="2"/>
       <c r="B11" s="7">
         <v>45929.0</v>
@@ -790,7 +790,7 @@
       <c r="J11" s="2"/>
       <c r="K11" s="2"/>
     </row>
-    <row r="12">
+    <row r="12" ht="22.5" customHeight="1">
       <c r="A12" s="2"/>
       <c r="B12" s="7">
         <v>45930.0</v>
@@ -815,7 +815,7 @@
       <c r="J12" s="2"/>
       <c r="K12" s="2"/>
     </row>
-    <row r="13">
+    <row r="13" ht="22.5" customHeight="1">
       <c r="A13" s="2"/>
       <c r="B13" s="7">
         <v>45930.0</v>
@@ -840,7 +840,7 @@
       <c r="J13" s="2"/>
       <c r="K13" s="2"/>
     </row>
-    <row r="14">
+    <row r="14" ht="22.5" customHeight="1">
       <c r="A14" s="2"/>
       <c r="B14" s="7">
         <v>45930.0</v>
@@ -865,7 +865,7 @@
       <c r="J14" s="2"/>
       <c r="K14" s="2"/>
     </row>
-    <row r="15">
+    <row r="15" ht="22.5" customHeight="1">
       <c r="A15" s="2"/>
       <c r="B15" s="7">
         <v>45930.0</v>
@@ -890,7 +890,7 @@
       <c r="J15" s="2"/>
       <c r="K15" s="2"/>
     </row>
-    <row r="16">
+    <row r="16" ht="22.5" customHeight="1">
       <c r="A16" s="2"/>
       <c r="B16" s="7">
         <v>45931.0</v>
@@ -915,7 +915,7 @@
       <c r="J16" s="2"/>
       <c r="K16" s="2"/>
     </row>
-    <row r="17">
+    <row r="17" ht="22.5" customHeight="1">
       <c r="A17" s="2"/>
       <c r="B17" s="7">
         <v>45931.0</v>
@@ -940,7 +940,7 @@
       <c r="J17" s="2"/>
       <c r="K17" s="2"/>
     </row>
-    <row r="18">
+    <row r="18" ht="22.5" customHeight="1">
       <c r="A18" s="2"/>
       <c r="B18" s="7">
         <v>45931.0</v>
@@ -965,7 +965,7 @@
       <c r="J18" s="2"/>
       <c r="K18" s="2"/>
     </row>
-    <row r="19">
+    <row r="19" ht="22.5" customHeight="1">
       <c r="A19" s="2"/>
       <c r="B19" s="7">
         <v>45931.0</v>
@@ -990,7 +990,7 @@
       <c r="J19" s="2"/>
       <c r="K19" s="2"/>
     </row>
-    <row r="20">
+    <row r="20" ht="22.5" customHeight="1">
       <c r="A20" s="2"/>
       <c r="B20" s="7">
         <v>45932.0</v>
@@ -1015,7 +1015,7 @@
       <c r="J20" s="2"/>
       <c r="K20" s="2"/>
     </row>
-    <row r="21">
+    <row r="21" ht="22.5" customHeight="1">
       <c r="A21" s="2"/>
       <c r="B21" s="7">
         <v>45932.0</v>
@@ -1040,7 +1040,7 @@
       <c r="J21" s="2"/>
       <c r="K21" s="2"/>
     </row>
-    <row r="22">
+    <row r="22" ht="22.5" customHeight="1">
       <c r="A22" s="2"/>
       <c r="B22" s="7">
         <v>45932.0</v>
@@ -1065,7 +1065,7 @@
       <c r="J22" s="2"/>
       <c r="K22" s="2"/>
     </row>
-    <row r="23">
+    <row r="23" ht="22.5" customHeight="1">
       <c r="A23" s="2"/>
       <c r="B23" s="7">
         <v>45932.0</v>
@@ -1090,7 +1090,7 @@
       <c r="J23" s="2"/>
       <c r="K23" s="2"/>
     </row>
-    <row r="24">
+    <row r="24" ht="22.5" customHeight="1">
       <c r="A24" s="2"/>
       <c r="B24" s="7">
         <v>45933.0</v>
@@ -1115,7 +1115,7 @@
       <c r="J24" s="2"/>
       <c r="K24" s="2"/>
     </row>
-    <row r="25">
+    <row r="25" ht="22.5" customHeight="1">
       <c r="A25" s="2"/>
       <c r="B25" s="7">
         <v>45933.0</v>
@@ -1140,7 +1140,7 @@
       <c r="J25" s="2"/>
       <c r="K25" s="2"/>
     </row>
-    <row r="26">
+    <row r="26" ht="22.5" customHeight="1">
       <c r="A26" s="2"/>
       <c r="B26" s="7">
         <v>45933.0</v>
@@ -1165,7 +1165,7 @@
       <c r="J26" s="2"/>
       <c r="K26" s="2"/>
     </row>
-    <row r="27">
+    <row r="27" ht="22.5" customHeight="1">
       <c r="A27" s="2"/>
       <c r="B27" s="7">
         <v>45933.0</v>
